--- a/INF8480 - Systèmes répartis et infonuagique/TP2.xlsx
+++ b/INF8480 - Systèmes répartis et infonuagique/TP2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Documents\Poly\H-18\gitEti\H2018\INF8480 - Systèmes répartis et infonuagique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Poly\8-H18\INF8480 - Systèmes répartis et infonuagique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA94225-C3A6-4DB5-A318-EE4135583BCD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{63C5FC15-BB25-4155-A8B2-A0961147CCAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,42 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
-    <t>q1</t>
+    <t>3 serveurs (q₁ = 3; q₂ = 3; q₃ = 4)</t>
   </si>
   <si>
-    <t>q2</t>
+    <t>4 serveurs (q₁ = 3; q₂ = 3; q₃ = 3 ; q₄ = 3)</t>
   </si>
   <si>
-    <t>q3</t>
+    <t>2 serveurs (q₁ = 3; q₂ = 3)</t>
   </si>
   <si>
-    <t>q4</t>
+    <t>Temps1 (ms)</t>
   </si>
   <si>
-    <t>time1</t>
+    <t>Temps2 (ms)</t>
   </si>
   <si>
-    <t>time2</t>
+    <t>Temps3 (ms)</t>
   </si>
   <si>
-    <t>time3</t>
+    <t>Temps moyen (ms)</t>
   </si>
   <si>
-    <t>m1</t>
+    <t>3 serveurs (q₁ = 5, m₁ = 0; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</t>
   </si>
   <si>
-    <t>m2</t>
+    <t>3 serveurs (q₁ = 5, m₁ = 50; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</t>
   </si>
   <si>
-    <t>m3</t>
+    <t>3 serveurs (q₁ = 5, m₁ = 80; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,8 +110,2630 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Temps d'exécution selon le nombre de serveur </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps1 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 serveurs (q₁ = 3; q₂ = 3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 serveurs (q₁ = 3; q₂ = 3; q₃ = 4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 serveurs (q₁ = 3; q₂ = 3; q₃ = 3 ; q₄ = 3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2649.793056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1842.510959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1418.767677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3092-4B9B-813E-492B0C0E8C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps2 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 serveurs (q₁ = 3; q₂ = 3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 serveurs (q₁ = 3; q₂ = 3; q₃ = 4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 serveurs (q₁ = 3; q₂ = 3; q₃ = 3 ; q₄ = 3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2642.6732919999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1748.6875359999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1360.2918299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3092-4B9B-813E-492B0C0E8C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps3 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 serveurs (q₁ = 3; q₂ = 3)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 serveurs (q₁ = 3; q₂ = 3; q₃ = 4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 serveurs (q₁ = 3; q₂ = 3; q₃ = 3 ; q₄ = 3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2452.9814150000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1696.475232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1357.9627929999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3092-4B9B-813E-492B0C0E8C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="21578304"/>
+        <c:axId val="47208336"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps moyen (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="0" cap="sq">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:headEnd type="none" w="med" len="sm"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5175500972045446E-2"/>
+                  <c:y val="-5.8299475088829121E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3092-4B9B-813E-492B0C0E8C9F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1439408474919887E-2"/>
+                  <c:y val="-4.5976902773435968E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3092-4B9B-813E-492B0C0E8C9F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9265898420827998E-2"/>
+                  <c:y val="-4.9042145593869733E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3092-4B9B-813E-492B0C0E8C9F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2581.8159209999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1762.5579089999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1379.0074333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3092-4B9B-813E-492B0C0E8C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="21578304"/>
+        <c:axId val="47208336"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="21578304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47208336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47208336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Temps d'exécution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21578304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Temps d'exécution selon le niveau de mailicieusité d'un serveur </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps1 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 0; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 50; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 80; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7764.9539459999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21909.736626999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22511.837919000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AA8-4442-971D-853E2A67E86C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps2 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 0; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 50; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 80; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7289.7569020000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20689.865006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22708.782670000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AA8-4442-971D-853E2A67E86C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps3 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 0; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 50; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 serveurs (q₁ = 5, m₁ = 80; q₂ = 5, m₂ = 0; q₃ = 5, m₃=0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7269.40578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21179.921555000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21779.679743000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7AA8-4442-971D-853E2A67E86C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="21578304"/>
+        <c:axId val="47208336"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps moyen (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="0" cap="sq">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:headEnd type="none" w="med" len="sm"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5175500972045446E-2"/>
+                  <c:y val="-5.8299475088829121E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7AA8-4442-971D-853E2A67E86C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1439408474919887E-2"/>
+                  <c:y val="-4.5976902773435968E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7AA8-4442-971D-853E2A67E86C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9265898420827998E-2"/>
+                  <c:y val="-4.9042145593869733E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7AA8-4442-971D-853E2A67E86C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7441.3722093333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21259.841062666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22333.433443999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7AA8-4442-971D-853E2A67E86C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="21578304"/>
+        <c:axId val="47208336"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="21578304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47208336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47208336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Temps d'exécution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21578304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1914523</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145791</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1763E33E-3B66-4662-ADA8-CDB0D4948C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2390775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62DCF4D-34EE-4FCF-9EB0-63D355B94857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -406,236 +3028,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EFB206-9ED7-4A8E-9FF7-0C41696691FD}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>2649793056/1000000</f>
+        <v>2649.793056</v>
+      </c>
+      <c r="C2">
+        <f>2642673292/1000000</f>
+        <v>2642.6732919999999</v>
+      </c>
+      <c r="D2">
+        <f>2452981415/1000000</f>
+        <v>2452.9814150000002</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(B2:D2)</f>
+        <v>2581.8159209999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3">
+        <f>1842510959/1000000</f>
+        <v>1842.510959</v>
+      </c>
+      <c r="C3">
+        <f>1748687536/1000000</f>
+        <v>1748.6875359999999</v>
+      </c>
+      <c r="D3">
+        <f>1696475232/1000000</f>
+        <v>1696.475232</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E4" si="0">AVERAGE(B3:D3)</f>
+        <v>1762.5579089999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2649793056</v>
-      </c>
-      <c r="F2">
-        <v>2642673292</v>
-      </c>
-      <c r="G2">
-        <v>2452981415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>1842510959</v>
-      </c>
-      <c r="F3">
-        <v>1748687536</v>
-      </c>
-      <c r="G3">
-        <v>1696475232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>3</v>
+        <f>1418767677/1000000</f>
+        <v>1418.767677</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <f>1360291830/1000000</f>
+        <v>1360.2918299999999</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1418767677</v>
-      </c>
-      <c r="F4">
-        <v>1360291830</v>
-      </c>
-      <c r="G4">
-        <v>1357962793</v>
+        <f>1357962793/1000000</f>
+        <v>1357.9627929999999</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>1379.0074333333332</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76329D70-61BD-420B-9094-06EB8486F156}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <f>7764953946/1000000</f>
+        <v>7764.9539459999996</v>
+      </c>
+      <c r="C2">
+        <f>7289756902/1000000</f>
+        <v>7289.7569020000001</v>
+      </c>
+      <c r="D2">
+        <f>7269405780/1000000</f>
+        <v>7269.40578</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(B2:D2)</f>
+        <v>7441.3722093333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B3">
+        <f>21909736627/1000000</f>
+        <v>21909.736626999998</v>
+      </c>
+      <c r="C3">
+        <f>20689865006/1000000</f>
+        <v>20689.865006</v>
+      </c>
+      <c r="D3">
+        <f>21179921555/1000000</f>
+        <v>21179.921555000001</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E4" si="0">AVERAGE(B3:D3)</f>
+        <v>21259.841062666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>7764953946</v>
-      </c>
-      <c r="H2">
-        <v>7289756902</v>
-      </c>
-      <c r="I2">
-        <v>7269405780</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>21909736627</v>
-      </c>
-      <c r="H3">
-        <v>20689865006</v>
-      </c>
-      <c r="I3">
-        <v>21179921555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
       <c r="B4">
-        <v>80</v>
+        <f>22511837919/1000000</f>
+        <v>22511.837919000001</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <f>22708782670/1000000</f>
+        <v>22708.782670000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>22511837919</v>
-      </c>
-      <c r="H4">
-        <v>22708782670</v>
-      </c>
-      <c r="I4">
-        <v>21779679743</v>
+        <f>21779679743/1000000</f>
+        <v>21779.679743000001</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>22333.433443999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>